--- a/examples/family/FamilyContext.xlsx
+++ b/examples/family/FamilyContext.xlsx
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,6 +564,21 @@
           <t>person__wikiPedia</t>
         </is>
       </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>person__childOf</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>person__parentOf</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>person__spouse</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/examples/family/FamilyContext.xlsx
+++ b/examples/family/FamilyContext.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Family" sheetId="1" state="visible" r:id="rId1"/>
@@ -425,42 +425,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>family__name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>family__weddingDate</t>
+          <t>weddingDate</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>family__weddingPlace</t>
+          <t>weddingPlace</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>family__yearMarried</t>
+          <t>yearMarried</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>family__monthMarried</t>
+          <t>monthMarried</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>family__divorced</t>
+          <t>divorced</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>family__husbandOf</t>
+          <t>husbandOf</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>family__wifeOf</t>
+          <t>wifeOf</t>
         </is>
       </c>
     </row>
@@ -486,97 +486,97 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>person__qid</t>
+          <t>qid</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>person__royal92id</t>
+          <t>royal92id</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>person__name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>person__nobleTitle</t>
+          <t>nobleTitle</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>person__picture</t>
+          <t>picture</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>person__sex</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>person__born</t>
+          <t>born</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>person__yearBorn</t>
+          <t>yearBorn</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>person__monthBorn</t>
+          <t>monthBorn</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>person__birthPlace</t>
+          <t>birthPlace</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>person__died</t>
+          <t>died</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>person__diedAt</t>
+          <t>diedAt</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>person__yearDied</t>
+          <t>yearDied</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>person__monthDied</t>
+          <t>monthDied</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>person__noInLine</t>
+          <t>noInLine</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>person__wikiPedia</t>
+          <t>wikiPedia</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>person__childOf</t>
+          <t>childOf</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>person__parentOf</t>
+          <t>parentOf</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>person__spouse</t>
+          <t>spouse</t>
         </is>
       </c>
     </row>
